--- a/biology/Histoire de la zoologie et de la botanique/Prix_Gadeau-de-Kerville_de_la_Société_entomologique_de_France/Prix_Gadeau-de-Kerville_de_la_Société_entomologique_de_France.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Prix_Gadeau-de-Kerville_de_la_Société_entomologique_de_France/Prix_Gadeau-de-Kerville_de_la_Société_entomologique_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Gadeau-de-Kerville_de_la_Soci%C3%A9t%C3%A9_entomologique_de_France</t>
+          <t>Prix_Gadeau-de-Kerville_de_la_Société_entomologique_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zoologiste et mécène originaire de Rouen, Henri Gadeau de Kerville (1858-1940) fut membre de la Société entomologique de France. 
-Le prix qui porte son nom, créé en 1926[1], a été décerné la première fois en 1927 et peut être décerné annuellement. Il résulte d'un don de 20 000 Francs et récompense un auteur français d'un travail imprimé ou en voie de publication concernant "un travail biologique... concernant un groupe d'Arthropodes, même si ce travail est réduit à une seule espèce,...le mot biologique étant pris dans son acception la plus large (parasitologie, entomologie agricole ou appliquée, biogéographie,... étude faunistique contenant des renseignements sur les mœurs dans une proportion ...suffisante)". 
+Le prix qui porte son nom, créé en 1926, a été décerné la première fois en 1927 et peut être décerné annuellement. Il résulte d'un don de 20 000 Francs et récompense un auteur français d'un travail imprimé ou en voie de publication concernant "un travail biologique... concernant un groupe d'Arthropodes, même si ce travail est réduit à une seule espèce,...le mot biologique étant pris dans son acception la plus large (parasitologie, entomologie agricole ou appliquée, biogéographie,... étude faunistique contenant des renseignements sur les mœurs dans une proportion ...suffisante)". 
 Par ailleurs, Gadeau de Kerville a créé un autre prix (portant également son nom) pour la Société zoologique de France, prix récompensant des travaux concernant la biologie d'un groupe, exception faite des arthropodes.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Gadeau-de-Kerville_de_la_Soci%C3%A9t%C3%A9_entomologique_de_France</t>
+          <t>Prix_Gadeau-de-Kerville_de_la_Société_entomologique_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Liste des lauréats[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1927 : Auguste Cros
